--- a/public_list2019/20190601_20190630_public_list.xlsx
+++ b/public_list2019/20190601_20190630_public_list.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj\2019SeoulCity\GitHub\public_list2019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="13950"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>nid</t>
   </si>
@@ -194,17 +198,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,28 +220,39 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -523,19 +542,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="44.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,13 +576,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -567,7 +592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>17949103</v>
       </c>
@@ -583,13 +608,13 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>20190604143915</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
@@ -599,7 +624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>17993916</v>
       </c>
@@ -615,13 +640,13 @@
       <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>20190611111217</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="s">
@@ -631,7 +656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18013966</v>
       </c>
@@ -647,13 +672,13 @@
       <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>20190613141413</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I4" t="s">
@@ -663,7 +688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18014500</v>
       </c>
@@ -679,13 +704,13 @@
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>20190613000000</v>
       </c>
       <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I5" t="s">
@@ -695,7 +720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18014501</v>
       </c>
@@ -711,13 +736,13 @@
       <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>20190613210833</v>
       </c>
       <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I6" t="s">
@@ -727,7 +752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18043137</v>
       </c>
@@ -743,13 +768,13 @@
       <c r="E7" t="s">
         <v>47</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>20190618110753</v>
       </c>
       <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="I7" t="s">
@@ -759,7 +784,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>18062499</v>
       </c>
@@ -775,13 +800,13 @@
       <c r="E8" t="s">
         <v>53</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>20190620111110</v>
       </c>
       <c r="G8" t="s">
         <v>54</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>221337552</v>
       </c>
       <c r="I8" t="s">
@@ -791,7 +816,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18062500</v>
       </c>
@@ -807,13 +832,13 @@
       <c r="E9" t="s">
         <v>53</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>20190620111636</v>
       </c>
       <c r="G9" t="s">
         <v>54</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>221337552</v>
       </c>
       <c r="I9" t="s">
@@ -824,17 +849,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>